--- a/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>BXSL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>185600</v>
+      </c>
+      <c r="E8" s="3">
         <v>192000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>166900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>135100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>130700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>136700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>91600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>81200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E9" s="3">
         <v>77200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>65300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>54400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>46300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>33300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>30600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>107600</v>
+      </c>
+      <c r="E10" s="3">
         <v>114800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>101600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>80700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>83400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>90400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>58300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>50600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>49200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E17" s="3">
         <v>81000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>51100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E18" s="3">
         <v>111000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>96100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>71400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>75600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>85600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>55300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>48500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,37 +1042,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>11400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>45300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>35900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>35600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>121000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>180500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-358100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>122500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>112200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>116700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>111500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>121200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>176300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>229000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-307400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>122000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>110000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>116700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>111800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>120800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>176300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>229000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>122000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>110000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>116700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>111800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>120800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>176300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>229000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-45300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-35900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-35600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-121000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-180500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>358100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>122000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>110000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>116700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>111800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>120800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>176300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>229000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>122000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>110000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>116700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>111800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>120800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>176300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>229000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E41" s="3">
         <v>102900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>259600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>181600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>291700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>218000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>77300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>73900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E43" s="3">
         <v>142900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>277600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>69500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>76500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>118000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,37 +1809,43 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10101900</v>
+      </c>
+      <c r="E47" s="3">
         <v>9918000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8274900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7391700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6129300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5607400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4905900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4056700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3650400</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E52" s="3">
         <v>13600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10331000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10177500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8821700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7652800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6504400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5950900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5011200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4168100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3782500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,37 +2157,43 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>259700</v>
+      </c>
+      <c r="E59" s="3">
         <v>231400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>221600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>151000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>232500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>182700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>135300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>178500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>216900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,37 +2221,43 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5637400</v>
+      </c>
+      <c r="E61" s="3">
         <v>5498600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4457700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3760700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2946200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2500400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2335000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1708500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1794100</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5897100</v>
+      </c>
+      <c r="E66" s="3">
         <v>5730100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4679300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3911700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3178700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2683100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2470300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1886900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2011000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E72" s="3">
         <v>202200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>167500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>131600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>81800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>35100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-126900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-308300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4433900</v>
+      </c>
+      <c r="E76" s="3">
         <v>4447500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4142500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3741100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3325700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3267800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2540900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2281100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1771500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>122000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>110000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>116700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>111800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>120800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>176300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>229000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1388600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-924400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1216200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-299300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-660500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-708300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-229600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-721800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,54 +3338,60 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1232400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1001700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1105900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>373300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>801200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>711600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>197500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>762400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -3150,36 +3399,42 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
         <v>-156700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>78000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-110100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>73700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>140700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-32100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>40500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>BXSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E8" s="3">
         <v>185600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>192000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>166900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>135100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>130700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>136700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>91600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>81200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E9" s="3">
         <v>78000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>77200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>65300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>54400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>47300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>46300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>33300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>30600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>104400</v>
+      </c>
+      <c r="E10" s="3">
         <v>107600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>114800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>101600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>80700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>83400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>90400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>58300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>50600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>49200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E17" s="3">
         <v>81500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>81000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>51100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>36300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>105300</v>
+      </c>
+      <c r="E18" s="3">
         <v>104100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>111000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>96100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>71400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>75600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>85600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>55300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>48500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,40 +1076,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-25700</v>
       </c>
       <c r="E20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F20" s="3">
         <v>11400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>45300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>35900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>35600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>121000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>180500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-358100</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1179,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>79600</v>
       </c>
       <c r="E23" s="3">
+        <v>108600</v>
+      </c>
+      <c r="F23" s="3">
         <v>122500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>112200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>116700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>111500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>121200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>176300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>229000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-307400</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>79600</v>
       </c>
       <c r="E26" s="3">
+        <v>107200</v>
+      </c>
+      <c r="F26" s="3">
         <v>122000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>110000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>116700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>111800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>120800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>176300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>229000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>79600</v>
       </c>
       <c r="E27" s="3">
+        <v>107200</v>
+      </c>
+      <c r="F27" s="3">
         <v>122000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>110000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>116700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>111800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>120800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>176300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>229000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>25700</v>
       </c>
       <c r="E32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-11400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-45300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-35900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-35600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-121000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-180500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>358100</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>79600</v>
       </c>
       <c r="E33" s="3">
+        <v>107200</v>
+      </c>
+      <c r="F33" s="3">
         <v>122000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>110000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>116700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>111800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>120800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>176300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>229000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>79600</v>
       </c>
       <c r="E35" s="3">
+        <v>107200</v>
+      </c>
+      <c r="F35" s="3">
         <v>122000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>110000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>116700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>111800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>120800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>176300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>229000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>168600</v>
+      </c>
+      <c r="E41" s="3">
         <v>140900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>102900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>259600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>181600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>291700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>218000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>77300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>73900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,40 +1774,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E43" s="3">
         <v>75000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>142900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>277600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>69500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>76500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>118000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1879,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,40 +1914,46 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10156500</v>
+      </c>
+      <c r="E47" s="3">
         <v>10101900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9918000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8274900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7391700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6129300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5607400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4905900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4056700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3650400</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E52" s="3">
         <v>13100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10382700</v>
+      </c>
+      <c r="E54" s="3">
         <v>10331000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10177500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8821700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7652800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6504400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5950900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5011200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4168100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3782500</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,40 +2294,46 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>239400</v>
+      </c>
+      <c r="E59" s="3">
         <v>259700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>231400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>221600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>151000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>232500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>182700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>135300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>178500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>216900</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2224,40 +2364,46 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5788200</v>
+      </c>
+      <c r="E61" s="3">
         <v>5637400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5498600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4457700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3760700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2946200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2500400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2335000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1708500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1794100</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6027600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5897100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5730100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4679300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3911700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3178700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2683100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2470300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1886900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2011000</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>133500</v>
+      </c>
+      <c r="E72" s="3">
         <v>177100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>202200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>167500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>131600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>81800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>35100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-126900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-308300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4355100</v>
+      </c>
+      <c r="E76" s="3">
         <v>4433900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4447500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4142500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3741100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3325700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3267800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2540900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2281100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1771500</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>79600</v>
       </c>
       <c r="E81" s="3">
+        <v>107200</v>
+      </c>
+      <c r="F81" s="3">
         <v>122000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>110000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>116700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>111800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>120800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>176300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>229000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1388600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-924400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1216200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-299300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-660500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-708300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-229600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-721800</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3394,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,60 +3584,66 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E100" s="3">
         <v>57200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1232400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1001700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1105900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>373300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>801200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>711600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>197500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>762400</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3402,39 +3651,45 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>27700</v>
       </c>
       <c r="E102" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-156700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>78000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-110100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>73700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>140700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-32100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>40500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>BXSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>226800</v>
+      </c>
+      <c r="E8" s="3">
         <v>187000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>185600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>192000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>166900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>135100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>130700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>136700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>91600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>81200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E9" s="3">
         <v>82600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>78000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>77200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>65300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>54400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>47300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>46300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>33300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>129800</v>
+      </c>
+      <c r="E10" s="3">
         <v>104400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>107600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>114800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>101600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>80700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>83400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>90400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>58300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>49200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E17" s="3">
         <v>81700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>81500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>81000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>51100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>132200</v>
+      </c>
+      <c r="E18" s="3">
         <v>105300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>104100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>111000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>96100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>71400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>75600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>85600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>55300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>48500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,43 +1110,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-25700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>45300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>35900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>35600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>121000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>180500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-358100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,43 +1222,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>79600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>108600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>122500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>112200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>116700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>111500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>121200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>176300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>229000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-307400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1226,34 +1272,37 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>79600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>107200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>122000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>110000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>116700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>111800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>120800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>176300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>229000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>79600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>107200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>122000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>110000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>116700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>111800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>120800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>176300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>229000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>25700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-45300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-35900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-35600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-121000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-180500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>358100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>79600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>107200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>122000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>110000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>116700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>111800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>120800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>176300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>229000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>79600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>107200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>122000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>110000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>116700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>111800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>120800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>176300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>229000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E41" s="3">
         <v>168600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>140900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>102900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>259600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>181600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>291700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>218000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>77300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>73900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,43 +1867,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E43" s="3">
         <v>39900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>75000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>142900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>277600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>69500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>76500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>118000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,8 +1981,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,43 +2019,49 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9740000</v>
+      </c>
+      <c r="E47" s="3">
         <v>10156500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10101900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9918000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8274900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7391700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6129300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5607400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4905900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4056700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3650400</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E52" s="3">
         <v>17600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9925800</v>
+      </c>
+      <c r="E54" s="3">
         <v>10382700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10331000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10177500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8821700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7652800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6504400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5950900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5011200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4168100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3782500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,43 +2431,49 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>244500</v>
+      </c>
+      <c r="E59" s="3">
         <v>239400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>259700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>231400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>221600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>151000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>232500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>182700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>135300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>178500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>216900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,43 +2507,49 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5512700</v>
+      </c>
+      <c r="E61" s="3">
         <v>5788200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5637400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5498600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4457700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3760700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2946200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2500400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2335000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1708500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1794100</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5757200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6027600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5897100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5730100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4679300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3911700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3178700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2683100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2470300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1886900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2011000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E72" s="3">
         <v>133500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>177100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>202200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>167500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>131600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>81800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>35100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-126900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-308300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4168500</v>
+      </c>
+      <c r="E76" s="3">
         <v>4355100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4433900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4447500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4142500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3741100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3325700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3267800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2540900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2281100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1771500</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>79600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>107200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>122000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>110000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>116700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>111800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>120800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>176300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>229000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-522300</v>
+      </c>
+      <c r="E89" s="3">
         <v>36300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1388600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-924400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1216200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-299300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-660500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-708300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-229600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-721800</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-525400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>57200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1232400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1001700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1105900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>373300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>801200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>711600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>197500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>762400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3633,20 +3882,20 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3654,42 +3903,48 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E102" s="3">
         <v>27700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>38100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-156700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>78000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-110100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>73700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>140700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-32100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>40500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>BXSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>250900</v>
+      </c>
+      <c r="E8" s="3">
         <v>226800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>187000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>185600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>192000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>166900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>135100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>130700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>136700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>91600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>81200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E9" s="3">
         <v>97000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>82600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>78000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>77200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>65300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>54400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>47300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>46300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E10" s="3">
         <v>129800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>104400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>107600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>114800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>101600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>80700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>83400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>90400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>58300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>50600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>49200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E17" s="3">
         <v>94600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>81700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>81500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>81000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>55100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>51100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E18" s="3">
         <v>132200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>105300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>104100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>111000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>96100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>71400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>75600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>85600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>55300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>48500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,46 +1143,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-21900</v>
       </c>
       <c r="E20" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-25700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>45300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>35900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>35600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>121000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>180500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-358100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>121800</v>
       </c>
       <c r="E23" s="3">
+        <v>95900</v>
+      </c>
+      <c r="F23" s="3">
         <v>79600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>108600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>122500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>112200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>116700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>111500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>121200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>176300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>229000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-307400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1275,34 +1320,37 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>121800</v>
       </c>
       <c r="E26" s="3">
+        <v>95900</v>
+      </c>
+      <c r="F26" s="3">
         <v>79600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>107200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>122000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>110000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>116700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>111800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>120800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>176300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>229000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>121800</v>
       </c>
       <c r="E27" s="3">
+        <v>95900</v>
+      </c>
+      <c r="F27" s="3">
         <v>79600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>107200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>122000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>110000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>116700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>111800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>120800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>176300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>229000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>21900</v>
       </c>
       <c r="E32" s="3">
+        <v>36200</v>
+      </c>
+      <c r="F32" s="3">
         <v>25700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-45300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-35900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-35600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-121000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-180500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>358100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>121800</v>
       </c>
       <c r="E33" s="3">
+        <v>95900</v>
+      </c>
+      <c r="F33" s="3">
         <v>79600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>107200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>122000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>110000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>116700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>111800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>120800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>176300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>229000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>121800</v>
       </c>
       <c r="E35" s="3">
+        <v>95900</v>
+      </c>
+      <c r="F35" s="3">
         <v>79600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>107200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>122000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>110000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>116700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>111800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>120800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>176300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>229000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E41" s="3">
         <v>131200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>168600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>140900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>102900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>259600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>181600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>291700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>218000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>77300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>73900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,46 +1959,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E43" s="3">
         <v>40000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>39900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>75000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>142900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>277600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>69500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>76500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>118000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2082,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,46 +2123,52 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9715100</v>
+      </c>
+      <c r="E47" s="3">
         <v>9740000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10156500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10101900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9918000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8274900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7391700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6129300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5607400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4905900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4056700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3650400</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2098,8 +2205,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E52" s="3">
         <v>14500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9909000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9925800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10382700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10331000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10177500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8821700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7652800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6504400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5950900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5011200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4168100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3782500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,8 +2526,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,46 +2567,52 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E59" s="3">
         <v>244500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>239400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>259700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>231400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>221600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>151000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>232500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>182700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>135300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>178500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>216900</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,46 +2649,52 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5527700</v>
+      </c>
+      <c r="E61" s="3">
         <v>5512700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5788200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5637400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5498600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4457700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3760700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2946200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2500400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2335000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1708500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1794100</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5750000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5757200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6027600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5897100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5730100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4679300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3911700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3178700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2683100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2470300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1886900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2011000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E72" s="3">
         <v>99400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>133500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>177100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>202200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>167500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>131600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>81800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>35100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-126900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-308300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4159000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4168500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4355100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4433900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4447500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4142500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3741100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3325700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3267800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2540900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2281100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1771500</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>121800</v>
       </c>
       <c r="E81" s="3">
+        <v>95900</v>
+      </c>
+      <c r="F81" s="3">
         <v>79600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>107200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>122000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>110000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>116700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>111800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>120800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>176300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>229000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-522300</v>
+        <v>167800</v>
       </c>
       <c r="E89" s="3">
+        <v>488000</v>
+      </c>
+      <c r="F89" s="3">
         <v>36300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1388600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-924400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1216200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-299300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-660500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-708300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-229600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-721800</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,22 +3913,23 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-117700</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-111700</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-115800</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-78200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,51 +4075,57 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-171400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-525400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>57200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1232400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1001700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1105900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>373300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>801200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>711600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>197500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>762400</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3885,20 +4133,20 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
@@ -3906,45 +4154,51 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-37500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>27700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-156700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>78000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-110100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>73700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>140700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-32100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>40500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>BXSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>264900</v>
+      </c>
+      <c r="E8" s="3">
         <v>250900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>226800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>187000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>185600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>192000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>166900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>135100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>130700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>136700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>91600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>81200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E9" s="3">
         <v>106400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>97000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>82600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>78000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>77200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>65300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>54400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>46300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>153400</v>
+      </c>
+      <c r="E10" s="3">
         <v>144500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>129800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>104400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>107600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>114800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>101600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>80700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>83400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>90400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>58300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>50600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>49200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E17" s="3">
         <v>107300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>94600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>81700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>81500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>81000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>51100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E18" s="3">
         <v>143700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>132200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>105300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>104100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>111000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>96100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>71400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>75600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>85600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>55300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>48500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,49 +1177,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-21900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-36200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-25700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>45300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>35900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>35600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>121000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>180500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-358100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,54 +1307,60 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>141400</v>
+      </c>
+      <c r="E23" s="3">
         <v>121800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>95900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>79600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>108600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>122500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>112200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>116700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>111500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>121200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>176300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>229000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-307400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1323,34 +1369,37 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E26" s="3">
         <v>121800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>95900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>79600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>107200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>122000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>110000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>116700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>111800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>120800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>176300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>229000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E27" s="3">
         <v>121800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>95900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>79600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>107200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>122000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>110000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>116700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>111800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>120800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>176300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>229000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E32" s="3">
         <v>21900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>36200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>25700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-45300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-35900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-35600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-121000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-180500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>358100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E33" s="3">
         <v>121800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>95900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>79600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>107200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>122000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>110000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>116700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>111800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>120800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>176300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>229000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E35" s="3">
         <v>121800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>95900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>79600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>107200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>122000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>110000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>116700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>111800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>120800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>176300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>229000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E41" s="3">
         <v>131300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>131200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>168600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>140900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>102900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>259600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>181600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>291700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>218000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>77300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>73900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,49 +2052,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E43" s="3">
         <v>49300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>39900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>75000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>142900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>277600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>69500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>76500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>118000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>27500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2085,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2126,49 +2228,55 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9703700</v>
+      </c>
+      <c r="E47" s="3">
         <v>9715100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9740000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10156500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10101900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9918000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8274900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7391700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6129300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5607400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4905900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4056700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3650400</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E52" s="3">
         <v>13300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9848000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9909000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9925800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10382700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10331000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10177500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8821700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7652800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6504400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5950900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5011200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4168100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3782500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,49 +2704,55 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>205600</v>
+      </c>
+      <c r="E59" s="3">
         <v>222300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>244500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>239400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>259700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>231400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>221600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>151000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>232500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>182700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>135300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>178500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>216900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2652,49 +2792,55 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5451900</v>
+      </c>
+      <c r="E61" s="3">
         <v>5527700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5512700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5788200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5637400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5498600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4457700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3760700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2946200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2500400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2335000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1708500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1794100</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5657500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5750000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5757200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6027600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5897100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5730100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4679300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3911700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3178700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2683100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2470300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1886900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2011000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>152100</v>
+      </c>
+      <c r="E72" s="3">
         <v>125700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>99400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>133500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>177100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>202200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>167500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>131600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>81800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>35100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-126900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-308300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4190500</v>
+      </c>
+      <c r="E76" s="3">
         <v>4159000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4168500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4355100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4433900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4447500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4142500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3741100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3325700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3267800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2540900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2281100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1771500</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E81" s="3">
         <v>121800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>95900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>79600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>107200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>122000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>110000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>116700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>111800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>120800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>176300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>229000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>155900</v>
+      </c>
+      <c r="E89" s="3">
         <v>167800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>488000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>36300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1388600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-924400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1216200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-299300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-660500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-708300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-229600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-721800</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,26 +4147,27 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-91800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-117700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-111700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-115800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-78200</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,78 +4321,84 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-186800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-171400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-525400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>57200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1232400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1001700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1105900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>373300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>801200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>711600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>197500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>762400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>3600</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
@@ -4157,48 +4406,54 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-37500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>38100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-156700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>78000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-110100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>73700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>140700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-32100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>40500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>BXSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>290400</v>
+      </c>
+      <c r="E8" s="3">
         <v>264900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>250900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>226800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>187000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>185600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>192000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>166900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>135100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>130700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>136700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>91600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>81200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>114200</v>
+      </c>
+      <c r="E9" s="3">
         <v>111500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>106400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>97000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>82600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>78000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>77200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>65300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>46300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>33300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>176200</v>
+      </c>
+      <c r="E10" s="3">
         <v>153400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>144500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>129800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>104400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>107600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>114800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>101600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>80700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>83400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>90400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>58300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>49200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E17" s="3">
         <v>113100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>107300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>94600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>81700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>81500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>81000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>51100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>176500</v>
+      </c>
+      <c r="E18" s="3">
         <v>151800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>143700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>132200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>105300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>104100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>111000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>96100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>71400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>75600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>85600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>55300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>48500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1211,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-21900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-36200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-25700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>45300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>35900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>35600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>121000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>180500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-358100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,61 +1350,67 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E23" s="3">
         <v>141400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>121800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>95900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>79600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>108600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>122500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>112200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>116700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>111500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>121200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>176300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>229000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-307400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1372,34 +1418,37 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E26" s="3">
         <v>138800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>121800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>95900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>79600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>107200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>122000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>110000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>116700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>111800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>120800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>176300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>229000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E27" s="3">
         <v>138800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>121800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>95900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>79600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>107200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>122000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>110000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>116700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>111800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>120800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>176300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>229000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E32" s="3">
         <v>10300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>21900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>36200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>25700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-45300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-35900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-35600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-121000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-180500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>358100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E33" s="3">
         <v>138800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>121800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>95900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>79600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>107200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>122000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>110000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>116700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>111800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>120800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>176300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>229000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E35" s="3">
         <v>138800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>121800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>95900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>79600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>107200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>122000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>110000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>116700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>111800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>120800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>176300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>229000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>147400</v>
+      </c>
+      <c r="E41" s="3">
         <v>103000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>131300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>131200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>168600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>140900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>102900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>259600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>181600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>291700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>218000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>77300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>73900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E43" s="3">
         <v>26700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>40000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>75000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>142900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>277600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>69500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>76500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>118000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,52 +2333,58 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9363400</v>
+      </c>
+      <c r="E47" s="3">
         <v>9703700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9715100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9740000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10156500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10101900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9918000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8274900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7391700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6129300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5607400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4905900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4056700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3650400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E52" s="3">
         <v>14600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9572400</v>
+      </c>
+      <c r="E54" s="3">
         <v>9848000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9909000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9925800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10382700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10331000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10177500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8821700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7652800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6504400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5950900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5011200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4168100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3782500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2841,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>244200</v>
+      </c>
+      <c r="E59" s="3">
         <v>205600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>222300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>244500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>239400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>259700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>231400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>221600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>151000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>232500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>182700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>135300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>178500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>216900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,52 +2935,58 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4978000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5451900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5527700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5512700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5788200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5637400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5498600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4457700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3760700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2946200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2500400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2335000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1708500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1794100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5222200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5657500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5750000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5757200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6027600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5897100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5730100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4679300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3911700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3178700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2683100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2470300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1886900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2011000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>181200</v>
+      </c>
+      <c r="E72" s="3">
         <v>152100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>125700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>99400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>133500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>177100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>202200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>167500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>131600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>81800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>35100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-126900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-308300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4350300</v>
+      </c>
+      <c r="E76" s="3">
         <v>4190500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4159000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4168500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4355100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4433900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4447500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4142500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3741100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3325700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3267800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2540900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2281100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1771500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E81" s="3">
         <v>138800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>121800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>95900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>79600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>107200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>122000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>110000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>116700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>111800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>120800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>176300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>229000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>521300</v>
+      </c>
+      <c r="E89" s="3">
         <v>155900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>167800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>488000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>36300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1388600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-924400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1216200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-299300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-660500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-708300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-229600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-721800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,29 +4381,30 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-91800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-117700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-111700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-115800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-78200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,84 +4567,90 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-486500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-186800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-171400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-525400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>57200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1232400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1001700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1105900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>373300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>801200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>711600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>197500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>762400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E101" s="3">
         <v>2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3600</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
@@ -4409,51 +4658,57 @@
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-28200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-37500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-156700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>78000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-110100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>73700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>140700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-32100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>40500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BXSL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>BXSL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E8" s="3">
         <v>290400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>264900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>250900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>226800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>187000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>185600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>192000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>166900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>135100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>130700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>136700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>91600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>81200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>80200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E9" s="3">
         <v>114200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>111500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>106400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>97000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>82600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>78000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>77200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>65300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>46300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>33300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>30600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>171700</v>
+      </c>
+      <c r="E10" s="3">
         <v>176200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>153400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>144500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>129800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>104400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>107600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>114800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>101600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>80700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>83400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>90400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>58300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>49200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E17" s="3">
         <v>113900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>113100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>107300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>94600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>81700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>81500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>81000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>51100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>165800</v>
+      </c>
+      <c r="E18" s="3">
         <v>176500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>151800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>143700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>132200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>105300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>104100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>111000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>96100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>71400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>75600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>85600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>55300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>48500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1245,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-26700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-21900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-36200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-25700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>45300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>35900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>35600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>121000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>180500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-358100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E23" s="3">
         <v>149800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>141400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>121800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>95900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>79600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>108600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>122500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>112200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>116700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>111500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>121200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>176300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>229000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-307400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,11 +1455,11 @@
         <v>5000</v>
       </c>
       <c r="E24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1421,34 +1467,37 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E26" s="3">
         <v>144900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>138800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>121800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>95900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>79600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>107200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>122000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>110000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>116700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>111800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>120800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>176300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>229000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E27" s="3">
         <v>144900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>138800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>121800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>95900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>79600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>107200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>122000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>110000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>116700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>111800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>120800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>176300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>229000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E32" s="3">
         <v>26700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>21900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>36200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>25700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-45300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-35900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-35600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-121000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-180500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>358100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E33" s="3">
         <v>144900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>138800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>121800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>95900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>79600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>107200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>122000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>110000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>116700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>111800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>120800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>176300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>229000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E35" s="3">
         <v>144900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>138800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>121800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>95900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>79600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>107200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>122000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>110000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>116700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>111800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>120800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>176300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>229000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>145800</v>
+      </c>
+      <c r="E41" s="3">
         <v>147400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>103000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>131300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>131200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>168600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>140900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>102900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>259600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>181600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>291700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>218000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>77300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>73900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E43" s="3">
         <v>45700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>40000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>75000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>142900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>277600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>69500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>76500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>118000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,55 +2438,61 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9581200</v>
+      </c>
+      <c r="E47" s="3">
         <v>9363400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9703700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9715100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9740000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10156500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>10101900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9918000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8274900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7391700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6129300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5607400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4905900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4056700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3650400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E52" s="3">
         <v>16000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9802200</v>
+      </c>
+      <c r="E54" s="3">
         <v>9572400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9848000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9909000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9925800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10382700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10331000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10177500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8821700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7652800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6504400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5950900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5011200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4168100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3782500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,55 +2978,61 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>237300</v>
+      </c>
+      <c r="E59" s="3">
         <v>244200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>205600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>222300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>244500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>239400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>259700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>231400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>221600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>151000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>232500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>182700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>135300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>178500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>216900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,55 +3078,61 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4962400</v>
+      </c>
+      <c r="E61" s="3">
         <v>4978000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5451900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5527700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5512700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5788200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5637400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5498600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4457700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3760700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2946200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2500400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2335000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1708500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1794100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5199600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5222200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5657500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5750000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5757200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6027600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5897100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5730100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4679300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3911700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3178700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2683100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2470300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1886900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2011000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>218600</v>
+      </c>
+      <c r="E72" s="3">
         <v>181200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>152100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>125700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>99400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>133500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>177100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>202200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>167500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>131600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>81800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>35100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-126900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-308300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4602600</v>
+      </c>
+      <c r="E76" s="3">
         <v>4350300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4190500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4159000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4168500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4355100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4433900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4447500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4142500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3741100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3325700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3267800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2540900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2281100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1771500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E81" s="3">
         <v>144900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>138800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>121800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>95900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>79600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>107200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>122000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>110000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>116700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>111800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>120800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>176300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>229000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-307500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-90400</v>
+      </c>
+      <c r="E89" s="3">
         <v>521300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>155900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>167800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>488000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1388600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-924400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1216200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-299300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-660500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-708300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-229600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-721800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,32 +4615,33 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-107000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-91800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-117700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-111700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-115800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-78200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,90 +4813,96 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-486500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-186800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-171400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-525400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>57200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1232400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1001700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1105900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>373300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>801200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>711600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>197500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>762400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>9600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3600</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
@@ -4661,54 +4910,60 @@
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>44400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-28200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-37500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>27700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-156700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>78000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-110100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>73700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>140700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-32100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>40500</v>
       </c>
     </row>
